--- a/功能Profile.xlsx
+++ b/功能Profile.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -332,12 +332,12 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>人设</t>
+          <t>电池电量</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>batteryPower</t>
         </is>
       </c>
       <c r="E5" s="2"/>
@@ -356,36 +356,35 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" customHeight="true" ht="45.0">
+    <row r="6" customHeight="true" ht="30.0">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>chargingStatus</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>角色切换</t>
+          <t>充电状态</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>读/写/上报</t>
+          <t>读/上报</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>min:1
-max:128
-step:1</t>
+          <t>0:未充电
+1:充电中</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -403,32 +402,155 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" customHeight="true" ht="240.0">
+    <row r="7" customHeight="true" ht="45.0">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>battery</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>剩余电量</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>读/上报</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>min:0
+max:100
+step:1</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>剩余电量</t>
+        </is>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" customHeight="true" ht="15.0">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>人设</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" customHeight="true" ht="45.0">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>角色切换</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>读/写/上报</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>min:1
+max:128
+step:1</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" customHeight="true" ht="240.0">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>mood</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>情绪</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>读/写/上报</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>0:中性
 1:快乐/喜悦
@@ -448,47 +570,47 @@
 15:爱</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" customHeight="true" ht="240.0">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" customHeight="true" ht="240.0">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>moodUser</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>用户情绪</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>读/写/上报</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>0:中性
 1:快乐/喜悦
@@ -508,170 +630,19 @@
 15:爱</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" customHeight="true" ht="15.0">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>roleId</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>角色ID</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>写/读/上报</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>StringLength:128</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" customHeight="true" ht="15.0">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>内容播放</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>contentDisplay</t>
-        </is>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" customHeight="true" ht="15.0">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>内容播放源</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>读/写/上报</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>StringLength:256</t>
-        </is>
-      </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>继续播放</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>doContinue</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>cover,playUrl</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>cover,playStatus</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>播放完毕</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>playEnd</t>
-        </is>
-      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
     <row r="12" customHeight="true" ht="15.0">
@@ -681,17 +652,17 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>playUrl</t>
+          <t>roleId</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>播放链接</t>
+          <t>角色ID</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>读/写/上报</t>
+          <t>写/读/上报</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -701,7 +672,7 @@
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>StringLength:1000</t>
+          <t>StringLength:128</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -709,85 +680,35 @@
           <t/>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>播放指定内容</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>doPlay</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>audioSubTitle,audioTitle,cover,cursor,duration,playMode,playUrl,source</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>cover,cursor,playMode,playStatus,source</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>播放开始</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>playStart</t>
-        </is>
-      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" customHeight="true" ht="45.0">
+    <row r="13" customHeight="true" ht="15.0">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>播放时长</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>读/写/上报</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>min:0
-max:86400
-step:1</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>内容播放</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>contentDisplay</t>
+        </is>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -805,17 +726,17 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>cursor</t>
+          <t>source</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>播放坐标</t>
+          <t>内容播放源</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>写/读/上报</t>
+          <t>读/写/上报</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -825,7 +746,7 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>StringLength:1000</t>
+          <t>StringLength:256</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -833,29 +754,61 @@
           <t/>
         </is>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>继续播放</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>doContinue</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>cover,playUrl</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>cover,playStatus</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>播放完毕</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>playEnd</t>
+        </is>
+      </c>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" customHeight="true" ht="60.0">
+    <row r="15" customHeight="true" ht="15.0">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>playStatus</t>
+          <t>playUrl</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>播放状态</t>
+          <t>播放链接</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -865,15 +818,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>0:无状态
-1:播放暂停/停止
-2:播放中
-3:播放结束</t>
+          <t>StringLength:1000</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -881,14 +831,46 @@
           <t/>
         </is>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>播放指定内容</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>doPlay</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>audioSubTitle,audioTitle,cover,cursor,duration,playMode,playUrl,source</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>cover,cursor,playMode,playStatus,source</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>播放开始</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>playStart</t>
+        </is>
+      </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" customHeight="true" ht="45.0">
@@ -898,12 +880,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>playMode</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>播放模式</t>
+          <t>播放时长</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -913,14 +895,14 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>int</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>0:顺序播放
-1:单曲循环
-2:随机播放</t>
+          <t>min:0
+max:86400
+step:1</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -938,41 +920,39 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" customHeight="true" ht="45.0">
+    <row r="17" customHeight="true" ht="15.0">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>stopPlayTime</t>
+          <t>cursor</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>停止播放的时间</t>
+          <t>播放坐标</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>读/写/上报</t>
+          <t>写/读/上报</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>min:0
-max:2147483647
-step:1</t>
+          <t>StringLength:1000</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>如果需要停止播放，下面value表示具体停止的utc时间的秒（注意不是毫秒）</t>
+          <t/>
         </is>
       </c>
       <c r="K17" s="2"/>
@@ -985,19 +965,19 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" customHeight="true" ht="15.0">
+    <row r="18" customHeight="true" ht="60.0">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>playStatus</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>音频封图</t>
+          <t>播放状态</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1007,12 +987,15 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>StringLength:1000</t>
+          <t>0:无状态
+1:播放暂停/停止
+2:播放中
+3:播放结束</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1030,19 +1013,19 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" customHeight="true" ht="15.0">
+    <row r="19" customHeight="true" ht="45.0">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>audioTitle</t>
+          <t>playMode</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>主标题</t>
+          <t>播放模式</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1052,17 +1035,19 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>StringLength:256</t>
+          <t>0:顺序播放
+1:单曲循环
+2:随机播放</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>音频主标题</t>
+          <t/>
         </is>
       </c>
       <c r="K19" s="2"/>
@@ -1075,19 +1060,19 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" customHeight="true" ht="15.0">
+    <row r="20" customHeight="true" ht="45.0">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>audioSubTitle</t>
+          <t>stopPlayTime</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>子标题</t>
+          <t>停止播放的时间</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1097,17 +1082,19 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>StringLength:256</t>
+          <t>min:0
+max:2147483647
+step:1</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>音频副标题</t>
+          <t>如果需要停止播放，下面value表示具体停止的utc时间的秒（注意不是毫秒）</t>
         </is>
       </c>
       <c r="K20" s="2"/>
@@ -1123,22 +1110,38 @@
     <row r="21" customHeight="true" ht="15.0">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>多模态通知</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>inform</t>
-        </is>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>cover</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>音频封图</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>读/写/上报</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>StringLength:1000</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1156,12 +1159,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>informText</t>
+          <t>audioTitle</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>通知文本</t>
+          <t>主标题</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1176,39 +1179,19 @@
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>StringLength:512</t>
+          <t>StringLength:256</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>进行语音播放</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>doVoicePlay</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>informText</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>informText</t>
-        </is>
-      </c>
+          <t>音频主标题</t>
+        </is>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1217,22 +1200,38 @@
     <row r="23" customHeight="true" ht="15.0">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>网络信息</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>netInfo</t>
-        </is>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>audioSubTitle</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>子标题</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>读/写/上报</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>StringLength:256</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>音频副标题</t>
+        </is>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1246,33 +1245,21 @@
     <row r="24" customHeight="true" ht="15.0">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>ssid</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>WLAN名称</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>读取/上报</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>多模态通知</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>inform</t>
+        </is>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1291,35 +1278,59 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>rssi</t>
+          <t>informText</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>信号强度</t>
+          <t>通知文本</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>读取/上报</t>
+          <t>读/写/上报</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+          <t>StringLength:512</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>进行语音播放</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>doVoicePlay</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>informText</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>informText</t>
+        </is>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1328,33 +1339,21 @@
     <row r="26" customHeight="true" ht="15.0">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>ip地址</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>读取/上报</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>网络信息</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>netInfo</t>
+        </is>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1373,12 +1372,12 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>bssid</t>
+          <t>ssid</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>bssid</t>
+          <t>WLAN名称</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1410,21 +1409,33 @@
     <row r="28" customHeight="true" ht="15.0">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>升级服务</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>ota</t>
-        </is>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>rssi</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>信号强度</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>读取/上报</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1443,12 +1454,12 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>otaStatus</t>
+          <t>ip</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0: 默认值, 100: 正在检测新版本, 200: 检测新版本完成, 300: 升级中, 400: 下载完成等待重启, 500: 超时, 600: 升级成功, -100: 升级失败</t>
+          <t>ip地址</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1458,12 +1469,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="J29" s="3"/>
@@ -1484,12 +1495,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>checkResult</t>
+          <t>bssid</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>检测新版本结果，检测成功0，其他为失败</t>
+          <t>bssid</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1499,12 +1510,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="J30" s="3"/>
@@ -1521,33 +1532,21 @@
     <row r="31" customHeight="true" ht="15.0">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>downloadTimeout</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>预估升级时间(s)</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>读取/上报</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>升级服务</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>ota</t>
+        </is>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1566,12 +1565,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>newVersion</t>
+          <t>otaStatus</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>新版本号</t>
+          <t>0: 默认值, 100: 正在检测新版本, 200: 检测新版本完成, 300: 升级中, 400: 下载完成等待重启, 500: 超时, 600: 升级成功, -100: 升级失败</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1581,12 +1580,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" s="3"/>
@@ -1607,12 +1606,12 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>MCUNewVersion</t>
+          <t>checkResult</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>MCU新版本号</t>
+          <t>检测新版本结果，检测成功0，其他为失败</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1622,12 +1621,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" s="3"/>
@@ -1648,12 +1647,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>downloadTimeout</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>新版本介绍</t>
+          <t>预估升级时间(s)</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1663,12 +1662,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" s="3"/>
@@ -1689,12 +1688,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>MCUIntroduction</t>
+          <t>newVersion</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>MCU新版本介绍</t>
+          <t>新版本号</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1730,27 +1729,27 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>autoOtaSwitch</t>
+          <t>MCUNewVersion</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>自动升级开关</t>
+          <t>MCU新版本号</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>读取/下发/上报</t>
+          <t>读取/上报</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="J36" s="3"/>
@@ -1771,12 +1770,12 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>otaProgress</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>升级进度</t>
+          <t>新版本介绍</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -1786,12 +1785,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="J37" s="3"/>
@@ -1805,6 +1804,129 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
+    <row r="38" customHeight="true" ht="15.0">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>MCUIntroduction</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>MCU新版本介绍</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>读取/上报</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" customHeight="true" ht="15.0">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>autoOtaSwitch</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>自动升级开关</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>读取/下发/上报</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" customHeight="true" ht="15.0">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>otaProgress</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>升级进度</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>读取/上报</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
